--- a/backend/src/main/resources/static/data đề test (1).xlsx
+++ b/backend/src/main/resources/static/data đề test (1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="182">
   <si>
     <t>CÂU HỎI</t>
   </si>
@@ -46,229 +46,229 @@
     <t>STT</t>
   </si>
   <si>
-    <t>"Phá kho thóc, giải quyết nạn đói" là khẩu hiệu chính trong phong trào chống ... cứu nước.</t>
+    <t>Đàn bầu còn có tên gọi nào khác?</t>
   </si>
   <si>
-    <t>Nhật</t>
+    <t>Độc huyền cầm</t>
   </si>
   <si>
     <t>GÓI 1</t>
   </si>
   <si>
-    <t>Khả năng phản ứng của sinh vật một cách nhịp nhàng với những thay đổi có tính chu kỳ của môi trường được gọi là ...</t>
+    <t>Khi đốt cháy hoàn toàn xicloankan. người ta thu được số mol H2O ... số mol CO2.</t>
   </si>
   <si>
-    <t>nhịp sinh học</t>
+    <t>bằng</t>
   </si>
   <si>
-    <t>... - người Hi Lạp được coi là tác giả những truyện ngụ ngôn đầu tiên.</t>
+    <t>Trong các tia sau: tia anpha, tia beta -, tia beta +, tia gamma, tia nào là dòng các hạt không mang điện tích?</t>
   </si>
   <si>
-    <t>Aesop</t>
+    <t>Tia gamma</t>
   </si>
   <si>
-    <t>Khi một người giương cung bắn thì lực xuất hiện ở cánh cung làm mũi tên bay đi là lực ...</t>
+    <t>Tên tiếng Việt của pianô là ...</t>
   </si>
   <si>
-    <t>đàn hồi</t>
+    <t>đàn dương cầm</t>
   </si>
   <si>
-    <t>Mamút - loài vật lớn nhất thuộc họ ..., đã tuyệt chùng khoảng 10.000 năm trước đây.</t>
+    <t>Cầu thủ nào thi đấu nhiều nhất cho đội tuyển quốc gia Việt Nam?</t>
   </si>
   <si>
-    <t>voi</t>
+    <t>Lê Công Vinh</t>
   </si>
   <si>
-    <t>Cao nguyên Mộc Châu của tỉnh ..., mang tính chất của khí hậu cận ôn đới, thuận lợi cho phát triển cây chè, cây ăn quả và chăn nuôi bò sữa.</t>
+    <t>Hai kim loại nào phổ biến nhất trong vỏ Trái Đất?</t>
   </si>
   <si>
-    <t>Sơn La</t>
+    <t>Sắt, nhôm</t>
   </si>
   <si>
-    <t>Áp lực lên một mặt được xác định bằng thành phần của lực ép theo phương ... với mặt bị ép.</t>
+    <t>Độ mặn của nước biển thấp nhất ở đới khí hậu nào?</t>
   </si>
   <si>
-    <t>vuông góc</t>
+    <t>Hàn đới</t>
   </si>
   <si>
-    <t>Vua ... đã sáng tác bài thơ "Thiên Trường vãn vọng" khi về thăm tỉnh Nam Định.</t>
+    <t>Người Ai Cập cổ coi thần nào là đấng sinh thành của các pharaon?</t>
   </si>
   <si>
-    <t>Trần Nhân Tông</t>
+    <t>Thần Mặt Trời</t>
   </si>
   <si>
-    <t>Axit photphoric là một triaxit, vì vậy nó có thể cho tối đa ... proton.</t>
+    <t>Cây cầu quay đầu tiên và duy nhất của Việt Nam hiện nay nằm tại thành phố nào ở miền Trung?</t>
   </si>
   <si>
-    <t>3</t>
+    <t>Đà Nẵng</t>
   </si>
   <si>
     <t>GÓI 2</t>
   </si>
   <si>
-    <t>Trong truyện cổ Anđecxen, ở cuối truyện, nàng tiên cá đã biến thành ...</t>
+    <t>Cây ca cao có nguồn gốc từ châu lục nào?</t>
   </si>
   <si>
-    <t>bọt biển</t>
+    <t>Châu Mỹ</t>
   </si>
   <si>
-    <t>Khan là tên gọi lối hát - kể - diễn sử thi anh hùng của các dân tộc vùng ...</t>
+    <t>Kênh đào Panama nối liền Đại Tây Dương với ...</t>
   </si>
   <si>
-    <t>Tây Nguyên</t>
+    <t>Thái Bình Dương</t>
   </si>
   <si>
-    <t>"Nam dược thần hiệu" là tên của bộ sách thuốc của danh y ...</t>
+    <t>Giải thưởng nào thường được trao trước khi diễn ra lễ trao giải Oscar, dành cho những phim, diễn viên dở nhất trong năm?</t>
   </si>
   <si>
-    <t>Tuệ Tĩnh</t>
+    <t>Mâm xôi vàng</t>
   </si>
   <si>
-    <t>Với khối lượng nguyên tử là 1,0078 đv.C, ... được coi là nguyên tố nhẹ nhất trong tự nhiên.</t>
+    <t>Nhiệt độ cao quanh năm, biên độ nhiệt trên 6°C, lượng mưa lớn là nét đặc trưng của khí hậu nào?</t>
   </si>
   <si>
-    <t>hiđrô</t>
+    <t>Nhiệt đới</t>
   </si>
   <si>
-    <t>Theo luật giao thông đường bộ, giấy phép lái xe máy được cấp cho những người đủ ... tuổi trở lên.</t>
+    <t>... còn được mệnh danh là Đảo Ngọc, là hòn đảo lớn nhất của Việt Nam, cũng là đảo lớn nhất trong quần thể 22 đảo tại đây, nằm trong vịnh Thái Lan.</t>
   </si>
   <si>
-    <t>18</t>
+    <t>Phú Quốc</t>
   </si>
   <si>
-    <t>Khi lên làm vua, An Dương Vương hợp nhất hai nhóm dân tộc Tây Âu và Lạc Việt, lập ra nước ...</t>
+    <t>Người ... là dân tộc chiếm khoảng 90% dân số tại Campuchia.</t>
   </si>
   <si>
-    <t>Âu Lạc</t>
+    <t>Khmer</t>
   </si>
   <si>
-    <t>Định luật ... của Mendel giúp ta giải thích được nguyên nhân đa dạng của sinh giới.</t>
+    <t>Trong dịch vụ chuyển phát nhanh "EMS" thì chữ M dùng để viết tắt cho từ tiếng Anh nào?</t>
   </si>
   <si>
-    <t>phân ly độc lập / 3</t>
+    <t>Mail</t>
   </si>
   <si>
-    <t>Hằng tháng, vào ngày trăng tròn giữa tháng và ngày không trăng đầu tháng thủy triều dao động nhiều nhất. Người ta gọi là những ngày ...</t>
+    <t>Tơ của nhện được tạo bởi ... và axit amin.</t>
   </si>
   <si>
-    <t>triều cường</t>
+    <t>protein</t>
   </si>
   <si>
-    <t>Nếu vật chuyển dời theo phương vuông góc với phương của lực thì công của lực đó bằng ...</t>
+    <t>Bộ môn thể thao nào đã xuất sắc mang về tấm huy chương vàng duy nhất cho đoàn thể thao Việt Nam tại Olympic Rio 2016?</t>
   </si>
   <si>
-    <t>0</t>
+    <t>Bắn súng</t>
   </si>
   <si>
-    <t>Năm Mậu Tuất (1418), Lê Lợi dựng cờ khởi nghĩa ở Lam Sơn và tự xưng là ...</t>
+    <t>... là hình thu nhỏ 1 phần (toàn bộ) Trái Đất lên mặt phẳng, trên cơ sở toán học nhất định nhằm thể hiện các đối tượng địa lí tự nhiên, KTXH.</t>
   </si>
   <si>
-    <t>Bình Định Vương</t>
+    <t>Bản đồ</t>
   </si>
   <si>
-    <t>Độ cong của ... có thể thay đổi được là nhờ sự co giãn của cơ vòng ở mắt.</t>
+    <t>Nhạc khí thổi của nhiều dân tộc ở nước ta, làm bằng các ống tre, nứa ghép được gọi là gì?</t>
   </si>
   <si>
-    <t>thủy tinh thể</t>
+    <t>Khèn</t>
   </si>
   <si>
-    <t>Châu Phi là châu lục lớn thứ ba trên thế giới, sau châu Á và châu ...</t>
+    <t>Nghệ sỹ Đặng Thái Sơn đã đoạt giải nhất trong cuộc thi Frederick Chopin vào tháng 10 năm 1980. Ông đã chơi loại nhạc cụ gì?</t>
   </si>
   <si>
-    <t>Mỹ</t>
+    <t>Piano</t>
   </si>
   <si>
     <t>GÓI 3</t>
   </si>
   <si>
-    <t>NPK là một loại phân bón tổng hợp có thành phần chính là các nguyên tố: ..., ... và ...</t>
+    <t>Vùng gió xoáy có áp suất khí quyển ở gần tâm khoảng dưới 1.000mbar, sức gió từ cấp 7 trở xuống được gọi là gì?</t>
   </si>
   <si>
-    <t>nitơ, phốtpho, kali</t>
+    <t>Áp thấp nhiệt đới</t>
   </si>
   <si>
-    <t>Năm 1428, sau khi đất nước hoàn toàn giải phóng, Lê Lợi lên ngôi Hoàng đế, lập ra nhà Lê, khôi phục quốc hiệu ...</t>
+    <t>Quân dân nhà Trần đã ... lần đánh thắng đội quân Mông Cổ do Thoát Hoan chỉ huy.</t>
   </si>
   <si>
-    <t>Đại Việt</t>
+    <t>2</t>
   </si>
   <si>
-    <t>Nếu mỗi vĩ tuyến cách nhau 1 độ thì trên quả Địa Cầu, từ cực Bắc đến cực Nam có tất cả ... vĩ tuyến.</t>
+    <t>Ngành dịch thuật có 2 thể loại là biên dịch và thể loại nào nữa?</t>
   </si>
   <si>
-    <t>181</t>
+    <t>Phiên dịch</t>
   </si>
   <si>
-    <t>Bánh đậu xanh là đặc sản nổi tiếng của tỉnh ...</t>
+    <t>Các hệ sinh thái trong sinh quyển thuộc 3 nhóm là: trên cạn, nước ngọt và nước ...</t>
   </si>
   <si>
-    <t>Hải Dương</t>
+    <t>mặn</t>
   </si>
   <si>
-    <t>Sông Mã chảy trên lãnh thổ 2 quốc gia, đó là ... và ...</t>
+    <t>Nhân vật chính trong câu chuyện cổ tích "Sự tích hòn Vọng Phu" tên là gì?</t>
   </si>
   <si>
-    <t>Việt Nam, Lào</t>
+    <t>Tô Thị</t>
   </si>
   <si>
-    <t>Tỉ lệ cacbon trong thành phần của thép ... hơn của gang.</t>
+    <t>Tiếng chuông trong bài hát Làng tôi của nhạc sĩ Văn Cao xuất phát từ nơi nào?</t>
   </si>
   <si>
-    <t>ít</t>
+    <t>Nhà thờ</t>
   </si>
   <si>
-    <t>Đây là những câu thơ của nhà thơ Chính Hữu: "Trong gió trong mưa/ Ngọn đèn đứng gác/ Cho ... nối theo nhau/ Đang hành quân đi lên phía trước".</t>
+    <t>Trong số các hành tinh xoay quanh Mặt Trời, hành tinh nào lớn nhất ?</t>
   </si>
   <si>
-    <t>thắng lợi</t>
+    <t>Mộc tinh</t>
   </si>
   <si>
-    <t>Gayageum là tên loại nhạc cụ truyền thống của đất nước ...</t>
+    <t>Phong trào nào diễn ra vào đầu thập niên 30 của thế kỉ XX, được coi là "cuộc diễn tập đầu tiên cho Cách mạng Tháng 8"?</t>
   </si>
   <si>
-    <t>Hàn Quốc</t>
+    <t>Xô viết Nghệ - Tĩnh</t>
   </si>
   <si>
-    <t>... hiện nay có 208 quốc gia thành viên, trở thành tổ chức thể thao lớn nhất thế giới.</t>
+    <t>Thành phố nào ở châu Âu là thành phố đầu tiên có vinh dự được 3 lần đăng cai tổ chức Thế vận hội Olympic mùa hè?</t>
   </si>
   <si>
-    <t>FIFA</t>
+    <t>London</t>
   </si>
   <si>
-    <t>Quốc kì của Singapore có 2 màu, đó là màu ... và màu ...</t>
+    <t>... là 1 trong những nhà soạn nhạc nổi tiếng nhất trong thể loại nhạc cổ điển châu Âu, 3 tuổi đã nghe và hiểu âm nhạc, 6 tuổi đã viết nhạc hòa tấu.</t>
   </si>
   <si>
-    <t>đỏ, trắng</t>
+    <t>Mozart</t>
   </si>
   <si>
-    <t>Tằm ... nhả nhiều tơ hơn tằm ...</t>
+    <t>"Hành lộ nan","Tĩnh dạ tư", "Thái liên khúc" là những bài thơ của tác giả nào người Trung Quốc?</t>
   </si>
   <si>
-    <t>đực, cái</t>
+    <t>Lý Bạch</t>
   </si>
   <si>
-    <t>"Ba tấc lưỡi mà gươm mà súng, nhà cầm quyền trông gió cũng gai ghê" là những câu Phan Bội Châu viết trong bài văn tế ...</t>
+    <t>Loại hình nghệ thuật Opera ra đời ở đất nước nào vào thế kỷ XVII?</t>
   </si>
   <si>
-    <t>Phan Châu Trinh</t>
+    <t>Ý</t>
   </si>
   <si>
-    <t>Trên huy chương của giải thưởng Nobel có khắc chân dung của nhà bác học ...</t>
+    <t>Với dạ dày có ... ngăn, bò có thể tiêu hóa những loại cỏ khó tiêu nhất.</t>
   </si>
   <si>
-    <t>Nobel</t>
+    <t>4</t>
   </si>
   <si>
-    <t>Khối lượng nguyên tử tập trung ở ...</t>
+    <t>Ở môn bóng rổ trong nhà, mỗi đội có bao nhiêu người trên sân?</t>
   </si>
   <si>
-    <t>hạt nhân</t>
+    <t>5</t>
   </si>
   <si>
-    <t>Trong Tự tình, Hồ Xuân Hương viết: "Ngán nỗi ... đi ... lại lại/ Mảnh tình san sẻ tỉ con con".</t>
+    <t>Người ta dùng axit gì để khắc lên thuỷ tinh?</t>
   </si>
   <si>
-    <t>xuân</t>
+    <t>HF</t>
   </si>
   <si>
     <t>LƯU Ý</t>
@@ -283,308 +283,351 @@
     <t>KHÔNG THAY ĐỔI CẤU TRÚC CỦA FILE</t>
   </si>
   <si>
-    <t>Quê của Mẹ Suốt trong thơ Tố Hữu nằm ở tỉnh nào?</t>
+    <t>Người ta tả con vật gì với các đặc điểm là loài vật có đầu gà, hàm én, cổ rắn, lưng rùa, đuôi cá và cánh khổng tước với 5 màu và cao 6 thước ?</t>
   </si>
   <si>
-    <t>QUẢNG BÌNH</t>
+    <t>PHƯỢNG HOÀNG</t>
   </si>
   <si>
-    <t>Ở miền Bắc nước ta, con trai lớn trong gia đình thường được gọi là gì?</t>
+    <t>Bộ phim "Học trò thủy thần" của đạo diễn - NSND Khánh Dư được xây dựng trên nội dung câu chuyện cổ tích "Sự tích ...". Trong dấu ... là gì?</t>
   </si>
   <si>
-    <t>ANH CẢ</t>
+    <t>ĐẦM MỰC</t>
   </si>
   <si>
-    <t>Nơi đây vốn được gọi là Mường Thanh, từ chữ Mường Then theo tiếng dân tộc Thái nghĩa là "Xứ Trời", gắn với truyền thuyết về sự phát sinh ra dân tộc Thái.</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF202122"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve">Cây cầu nào là cây </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF202122"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>cầu</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF202122"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> lớn nhất trong dự án 7 cây cầu của </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF202122"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>Hà Nội</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF202122"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> bắc qua </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF202122"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t>sông Hồng</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF202122"/>
+        <sz val="11.0"/>
+      </rPr>
+      <t xml:space="preserve"> ?</t>
+    </r>
   </si>
   <si>
-    <t>ĐIỆN BIÊN PHỦ</t>
+    <t>THANH TRÌ</t>
   </si>
   <si>
-    <t>Trong xã hội phong kiến Việt Nam, hệ thống quan lại chia làm hai ngạch là quan ... và quan võ.</t>
+    <t>Đây là phân số lớn hơn 1 và bé hơn 2, có mẫu là số nguyên tố nhỏ nhất có 2 chữ số và tử số là 1 số tròn chục.</t>
   </si>
   <si>
-    <t>VĂN</t>
+    <t>20/11</t>
   </si>
   <si>
-    <t>Cấp bậc cao nhất trong quân đội nhân dân Việt Nam là gì ?</t>
+    <t>Ở Hà Nội, di tích văn hóa này được xây dựng từ năm 1070, dưới thời vua Lý Thánh Tông.</t>
   </si>
   <si>
-    <t>ĐẠI TƯỚNG</t>
+    <t>VĂN MIẾU</t>
   </si>
   <si>
     <t>CHƯỚNG NGẠI VẬT</t>
   </si>
   <si>
-    <t>VÕ NGUYÊN GIÁP</t>
+    <t>CHU VĂN AN</t>
   </si>
   <si>
     <t>cnv.jpg</t>
   </si>
   <si>
-    <t>Sắp xếp các loại bánh sau với tên gọi tương ứng.</t>
+    <t>Điền số thích hợp vào dấu ?</t>
   </si>
   <si>
-    <t>BDAC</t>
+    <t>27</t>
   </si>
   <si>
     <t>tt1.jpg</t>
   </si>
   <si>
-    <t>Tìm khối lượng phù hợp để cân thăng bằng.</t>
+    <t>Tìm số khác quy luật ?</t>
   </si>
   <si>
-    <t>4 kg</t>
+    <t>A</t>
   </si>
   <si>
     <t>tt2.jpg</t>
   </si>
   <si>
-    <t>Đây là cây gì ?</t>
+    <t>Đây là gì ?</t>
   </si>
   <si>
-    <t>Me</t>
+    <t>Mật ong</t>
   </si>
   <si>
     <t>tt3.mp4</t>
   </si>
   <si>
-    <t>Đây là gì ?</t>
+    <t>Đây là môn thể thao nào ?</t>
   </si>
   <si>
-    <t>Mũ cối</t>
+    <t>Boxing</t>
   </si>
   <si>
     <t>tt4.mp4</t>
   </si>
   <si>
-    <t>Trong bài thơ "Tỏ lòng" (Thuật Hoài), Phạm Ngũ Lão cảm thấy thẹn khi nghe người đời kể chuyện về ai?</t>
+    <t>Ngay sau khi ra đời (22/12/1944), đội Việt Nam tuyên truyền giải phóng quân đã đánh thắng hai trận Phay Khắt và Nà Ngần trên địa bàn tỉnh nào?</t>
   </si>
   <si>
-    <t>Gia Cát Lượng</t>
+    <t>Cao Bằng</t>
   </si>
   <si>
-    <t>Giống lợn đã có từ lâu đời ở miền Bắc nước ta có thân nhỏ, đen trũi, mặt nhăn, lưng võng, bụng xệ có thịt thơm ngon được gọi là gì?</t>
+    <t>Mẹ Suốt trong thơ Tố Hữu đã "Một tay lái chiếc đò ngang" qua dòng sông nào?</t>
   </si>
   <si>
-    <t>Lợn ỉ</t>
+    <t>Sông Nhật Lệ</t>
   </si>
   <si>
-    <t>Dẫn khí NH3 vào bình khí Cl2, NH3 tự bốc cháy tạo ra ngọn lửa có khói trắng. Khói trắng này là những hạt nhỏ tinh thể nào?</t>
+    <t>"Tiếng nói là thứ của cải vô cùng lâu đời và vô cùng quý báu của dân tộc. Chúng ta phải giữ gìn nó, quý trọng nó ..." là câu nói của ai?</t>
   </si>
   <si>
-    <t>NH4Cl</t>
+    <t>Bác Hồ</t>
   </si>
   <si>
-    <t>Trong các môi trường chất khí, chất điện phân và kim loại, điện trở của môi trường nào sẽ giảm khi nhiệt độ tăng?</t>
+    <t>Protein được biến đổi trong quá trình tiêu hoá đến giai đoạn cuối cùng để cơ thể có thể hấp thụ được là chất gì?</t>
   </si>
   <si>
-    <t>Chất điện phân và chất khí</t>
+    <t>Acid amin / Amino acid</t>
   </si>
   <si>
-    <t>Loại hình âm nhạc nào xuất hiện từ thế kỉ XVI ở Italia, sau đó phổ biến sang Pháp, Anh, Đức, Nga và nhiều nước khác, được coi là thể loại lớn nhất trong âm nhạc châu Âu?</t>
+    <t>Đảo Calimantan thuộc quyền lãnh thổ của 3 quốc gia, đó là 3 quốc gia nào ?</t>
   </si>
   <si>
-    <t>Opera</t>
+    <t>Indonesia, Malaysia, Brunei</t>
   </si>
   <si>
-    <t>Khối khí hình thành trên các vùng đất liền, có tính chất tương đối khô được gọi là gì?</t>
+    <t>Tùy theo tỉ lệ khối lượng các nguyên tố có trong cơ thể sống mà các nhà khoa học chia các nguyên tố thành 2 loại cơ bản nào?</t>
   </si>
   <si>
-    <t>Khối khí lục địa</t>
+    <t>Đa lượng và vi lượng</t>
   </si>
   <si>
-    <t>Các tác phẩm: Kim Tiền của Vi Huyền Đắc, Ông Tây An Nam của Nam Xương, Ngã ba của Đoàn Phú Tứ thuộc thể loại văn học nào?</t>
+    <t>Có bao nhiêu số có 2 chữ số mà khi hoán vị hai chữ số đó thì ta được số mới hơn số cũ 9 đơn vị?</t>
   </si>
   <si>
-    <t>Kịch</t>
+    <t>8 (Các số lần lượt là 12, 23, 34, 45, 56, 67, 78, 89)</t>
   </si>
   <si>
-    <t>Bệnh hở hàm ếch (khuyết tật khe hở vòm miệng) ở trẻ sơ sinh do nguyên nhân gì gây nên?</t>
+    <t>Một số chất khi bị tia này đập vào sẽ phát ra ánh sáng như: thủy tinh phát màu xanh lục, vôi phát ra màu da cam. Tia này là tia gì?</t>
   </si>
   <si>
-    <t>Gen di truyền</t>
+    <t>Chùm tia electron / Chùm tia cathode</t>
   </si>
   <si>
-    <t>Ác-si-met là nhà bác học nổi tiếng người nước nào?</t>
+    <t>Ancol bậc II bị oxi hoá nhẹ bằng CuO tạo thành chất gì?</t>
   </si>
   <si>
-    <t>Hy Lạp</t>
+    <t>Ketone</t>
   </si>
   <si>
-    <t>Nhà thơ Chế Lan Viên đã viết "Chạnh thương cô ... như đời dân tộc/ Sắc tài sao mà lại lắm truân chuyên". Trong dấu ... là nhân vật văn học nào?</t>
+    <t>Các tác giả Hoài Thanh - Hoài Chân đã trân trọng dành những dòng đầu tiên của cuốn Thi nhân Việt Nam để gửi lời "cung chiêu anh hồn" thi sĩ nào?</t>
   </si>
   <si>
-    <t>Thúy Kiều</t>
+    <t>Tản Đà</t>
   </si>
   <si>
-    <t>Hình thức nghệ thuật dân gian ca trù có từ triều đại nào ở nước ta: Lý, Trần, Lê hay Nguyễn?</t>
+    <t>Năm 1941, khi về nước, Chủ tịch Hồ Chí Minh đã sống và làm việc tại hang Pác Bó (Cao Bằng). Người đã đặt tên cho dòng suối trước cửa hang là gì?</t>
   </si>
   <si>
-    <t>Lý</t>
+    <t>Suối Lenin</t>
   </si>
   <si>
-    <t>Giải Nobel vật lý năm 1903 thuộc về 3 nhà bác học người Pháp, đó là: Henri Becquerel và hai người nữa là ai?</t>
+    <t>Tủy sống của con người có 2 chỗ phình to ra. Đó là những chỗ nào?</t>
   </si>
   <si>
-    <t>Marie Curie, Pierre Curie</t>
+    <t>Cổ và thắt lưng</t>
   </si>
   <si>
-    <t>Năm 1610, Galileo Galile dùng kính viễn vọng phát hiện được cái gì trên Sao Thổ?</t>
+    <t>Tháng 2/1946, thay mặt Chính phủ và đồng bào cả nước, Chủ tịch Hồ Chí Minh đã tặng cho Nam Bộ danh hiệu vẻ vang ...</t>
   </si>
   <si>
-    <t>Vành đai</t>
+    <t>Thành đồng Tổ quốc</t>
   </si>
   <si>
-    <t>"Bài ca ngất ngưởng" của Nguyễn Công Trứ là một trong những tác phẩm xuất sắc nhất thuộc thể thơ nào?</t>
+    <t>Axit atcobic chính là vitamin nào?</t>
   </si>
   <si>
-    <t>Hát nói</t>
+    <t>Vitamin C</t>
   </si>
   <si>
-    <t>Khi bấm máy ảnh để chụp ảnh trong bóng tối, ta thấy đèn lóe sáng. Bộ phận nào đã trực tiếp cung cấp năng lượng để cho đèn loé sáng?</t>
+    <t>Từ A đến B có 7 con đường, từ B đến C có 8 con đường, từ C đến D có 9 con đường. Hỏi có bao nhiêu cách chọn đường đi từ A đến D lần lượt qua B và C?</t>
   </si>
   <si>
-    <t>Tụ điện</t>
+    <t>504 (Áp dụng quy tắc nhân, ta có 7 × 8 × 9 = 504 cách.)</t>
   </si>
   <si>
-    <t>Đại dương nào hoàn toàn nằm ở nửa cầu Đông?</t>
+    <t>Luồng hạt nhân và hạt cơ bản, từ không gian vũ trụ rơi vào Trái Đất, gây ra nhiều phản ứng hạt nhân trong khí quyển gọi là ...</t>
   </si>
   <si>
-    <t>Ấn Độ Dương</t>
+    <t>tia vũ trụ</t>
   </si>
   <si>
-    <t>Theo Thạch Lam, tập hồi kí này đã ghi lại những "rung động cực điểm của một linh hồn trẻ dại". Tập hồi ký nào của nhà văn Nguyên Hồng được nhắc tới ở trên?</t>
+    <t>Tố Hữu viết : " Sống làm quả bom nổ, chết theo dòng nước xanh". Nhân vật được ca ngợi trong câu thơ trên là ai?[1]</t>
   </si>
   <si>
-    <t>Những ngày thơ ấu</t>
+    <t>Phạm Hồng Thái</t>
   </si>
   <si>
-    <t>Ai là người trẻ nhất được nhận Giải thưởng Hồ Chí Minh về lĩnh vực Văn học trong đợt trao giải lần 1 vào năm 1996?</t>
+    <t>1 cuộc bỏ phiếu trực tiếp mà các cử tri được yêu cầu chấp nhận hay phủ quyết 1 đề xuất đặc biệt để thông qua (sửa đổi) 1 hiến pháp, bộ luật được gọi là gì?</t>
   </si>
   <si>
-    <t>Nguyễn Đình Thi</t>
+    <t>Trưng cầu dân ý</t>
   </si>
   <si>
-    <t>Quốc gia nào ở châu Mỹ La tinh được nhắc tới trong bài hát "Lời anh vọng mãi ngàn năm" - viết về người anh hùng liệt sĩ Nguyễn Văn Trỗi?</t>
+    <t>"Năm 1888, ông từ trần. Cánh đồng Ba Tri rợp trắng khăn tang khóc thương ông. Cuộc đời ông là một tấm gương sáng ngời về nghị lực và đạo đức". Ông là ai?</t>
   </si>
   <si>
-    <t>Venezuela</t>
+    <t>Nguyễn Đình Chiểu</t>
   </si>
   <si>
-    <t>Trong tự nhiên, nguyên tố flo chỉ có ở dạng hợp chất, phần lớn tập trung trong hai khoáng vật, đó là florit (CaF2) và khoáng vật nào?</t>
+    <t>Quốc gia nào tham gia muộn nhất vào nhóm 8 quốc gia công nghiệp phát triển hàng đầu của thế giới (G8)?</t>
   </si>
   <si>
-    <t>Criolit</t>
+    <t>Nga</t>
   </si>
   <si>
-    <t>VD3.mp4</t>
+    <t>Từ năm 2009, Thủ tướng Chính phủ đã quyết định lấy ngày 19/4 hàng năm là "Ngày ... Việt Nam".</t>
   </si>
   <si>
-    <t>Đứng đầu các bộ trong nhà nước Văn Lang là ai?</t>
+    <t>Văn hóa các dân tộc</t>
   </si>
   <si>
-    <t>Lạc tướng</t>
+    <t>Đầu năm 1935, đồng chí nào đã dẫn đầu đoàn đại biểu của Đảng đi Mát-xcơ-va dự Đại hội lần thứ VII Quốc tế cộng sản?</t>
   </si>
   <si>
-    <t>Diễn ra từ ngày 24/12/1944, các chiến thắng ... và ... đã mở đầu cho truyền thống Trận đấu đánh thắng của Quân đội nhân dân Việt Nam.</t>
+    <t>Lê Hồng Phong</t>
   </si>
   <si>
-    <t>Phai Khắt, Nà Ngần</t>
+    <t>"Nhà nước ba năm mở một khoa/ Trường Nam thi lẫn với Trường Hà". Khoa thi được Trần Tế Xương nhắc tới là khoa thi nào và được tổ chức ở đâu?</t>
   </si>
   <si>
-    <t>VD1.mp4</t>
+    <t>Thi Hương, ở Nam Định</t>
   </si>
   <si>
-    <t>Từ 1 đến 150 có tất cả bao nhiêu chữ số 0?</t>
+    <t>Dân gian ta có câu: "Trên trời có ông sao Tua/ Ở làng Minh Giám có vua ...". Trong dấu ... là nhân vật nào?</t>
   </si>
   <si>
-    <t>25</t>
+    <t>Bá Vành</t>
   </si>
   <si>
-    <t>Phiên bản đầu tiên của hệ điều hành nào đã ra đời năm 1969 tại phòng thí nghiệm Bell của hãng AT&amp;T?</t>
+    <t>Những nước Cộng hòa tách ra từ Liên bang Xô viết đã thành lập cộng đồng chung với tên gọi là gì?</t>
   </si>
   <si>
-    <t>UNIX</t>
+    <t>Cộng đồng các Quốc gia Độc lập (SNG)</t>
   </si>
   <si>
-    <t>Vị kiến trúc sư của Cửu trùng đài - 1 kiến trúc nổi tiếng ở Thăng Long xây vào đầu TK XVI, đã trở thành nhân vật chính trong vở kịch đầu tay của Nguyễn Huy Tưởng. Đó là ai?</t>
+    <t>Trong hàng ngũ của nghĩa quân Tây Sơn có 5 nữ tướng (Tây Sơn ngũ phụng thư): Nguyễn Thị Dung, Huỳnh Thị Cúc, Trần Thị Lan và 2 người nào nữa ?</t>
   </si>
   <si>
-    <t>Vũ Như Tô</t>
+    <t>Bùi Thị Xuân và Bùi Thị Nhạn</t>
   </si>
   <si>
-    <t>Tuy độ âm điện của photpho nhỏ hơn của nitơ nhưng tại sao ở điều kiện thường photpho lại hoạt động hóa học mạnh hơn nitơ?</t>
+    <t>Trong các tỉnh sau: An Giang, Hưng Yên, Sóc Trăng, Nam Định, Trà Vinh, những tỉnh nào không giáp biển?</t>
   </si>
   <si>
-    <t>Vì liên kết trong phân tử photpho kém bền hơn trong phân tử nitơ</t>
+    <t>An Giang, Hưng Yên</t>
   </si>
   <si>
-    <t>VD4.mp4</t>
+    <t>"Hồ Chí Minh - chân dung một con người", "Nước về Bắc Hưng Hải", "Nguyễn Văn Trỗi" là những bộ phim xuất sắc của đạo diễn - nghệ sĩ nhân dân nào?</t>
   </si>
   <si>
-    <t>Giải vô địch bóng đá châu Âu diễn ra đầu tiên tại quốc gia nào?</t>
+    <t>Bùi Đình Hạc</t>
   </si>
   <si>
-    <t>Pháp</t>
+    <t>Dựa vào độ cao của đám khói, thể tích của vụn đá bắn ra và sự mãnh liệt của vụ nổ, người ta xếp hạng chỉ số sức nổ của núi lửa theo các mức nào?</t>
   </si>
   <si>
-    <t>Người ta muốn cưa 1 cây gỗ dài 10 m thành 10 khúc. Nếu mỗi lần chỉ cưa đúng 1 khúc gỗ và mất 5 phút để cưa xong, sau đó nghỉ 5 phút rồi cưa tiếp thì mất bao nhiêu phút để xong?</t>
+    <t>0 đến 8</t>
   </si>
   <si>
-    <t>85 (Giải thích: Nếu muốn cưa 9 khúc gỗ thì người ta mất 9 × 5 = 45 phút, giữa 2 khúc cưa nghỉ 5 phút nhưng chỉ có 8 lần nghỉ và 9 lần cắt, nên người ta đã nghỉ 8 × 5 = 40 phút, vậy để cưa xong người ta cần tổng cộng 85 phút.)</t>
+    <t>Trào lưu văn học nào xuất hiện ở Việt Nam sau CMT8/1945, phát triển vượt bậc và chiếm ưu thế tuyệt đối trong số lượng sáng tác thời bấy giờ?</t>
   </si>
   <si>
-    <t>Hành lang kinh tế Đông - Tây (EWEC) được nêu ra năm 1998 tại một Hội nghị Bộ trưởng ở Philippines, nhằm phát triển và hội nhập kinh tế giữa 4 quốc gia. Đó là những quốc gia nào?</t>
+    <t>Hiện thực chủ nghĩa xã hội</t>
   </si>
   <si>
-    <t>Myanmar, Thái Lan, Lào và Việt Nam</t>
+    <t>Bộ ba ... được gọi là "Tuế hàn tam hữu" hay "Đông thiên tam hữu", ba người bạn trong tiết trời giá lạnh của ngày đông. Trong ... là gì?</t>
   </si>
   <si>
-    <t>Liên Hợp Quốc đã chọn năm 2009 là năm Thiên văn quốc tế nhằm tôn vinh và kỷ niệm 400 năm những phát hiện mang tính cách mạng của nhà bác học nào về khoa học vũ trụ?</t>
+    <t>Tùng, Trúc, Mai</t>
   </si>
   <si>
-    <t>Galileo Galilei</t>
+    <t>Năm 1284, Quốc công Tiết chế Trần Hưng Đạo đã ví sánh 2 thuộc tướng nào của mình với những trụ lông cánh của loài chim Hồng Hộc?</t>
   </si>
   <si>
-    <t>Tìm số tự nhiên mà một nửa của nó trừ đi một nửa đơn vị rồi nhân với một nửa của nó bằng một nửa đơn vị?</t>
+    <t>Yết Kiêu và Dã Tượng</t>
   </si>
   <si>
-    <t>2</t>
+    <t>Nhà thơ Quang Huy nhắc đến công trình nào trong những dòng thơ sau: "Chiếc đập lớn, nối liền hai khối núi/ Biển sẽ nằm bỡ ngỡ giữa cao nguyên"?</t>
   </si>
   <si>
-    <t>VD2.mp4</t>
+    <t>Nhà máy thủy điện Hòa Bình</t>
   </si>
   <si>
-    <t>"Kháng chiến nhất định thắng lợi" là tác phẩm tập hợp những bài viết của đồng chí ... đăng trên báo "Sự thật" năm 1947.</t>
+    <t>Số lẻ nhỏ nhất có bốn chữ số khác nhau là ...</t>
   </si>
   <si>
-    <t>Trường Chinh</t>
+    <t>1023</t>
   </si>
   <si>
-    <t>Trong các động vật sau, những động vật nào có dạ dày đơn: trâu, bò, ngựa, thỏ, dê, cừu?</t>
+    <t>Vị nữ hoàng đế duy nhất trong lịch sử Việt Nam đã sống ở thế kỷ nào?</t>
   </si>
   <si>
-    <t>Thỏ và ngựa</t>
-  </si>
-  <si>
-    <t>Sao Diêm vương bị loại khỏi danh sách hành tinh trong hệ Mặt Trời. Bây giờ nó được gọi là gì?</t>
-  </si>
-  <si>
-    <t>Hành tinh lùn</t>
-  </si>
-  <si>
-    <t>Quốc gia nào là quốc gia duy nhất ở khu vực Đông Nam Á nằm trong Tổ chức các nước Xuất khẩu Dầu mỏ (OPEC)?</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
+    <t>13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -615,13 +658,14 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color rgb="FFE4E6EB"/>
+      <color rgb="FF202122"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="14.0"/>
-      <color theme="1"/>
-      <name val="Quattrocento Sans"/>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF202122"/>
+      <name val="Sans-serif"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -635,16 +679,9 @@
       <name val="Quattrocento Sans"/>
     </font>
     <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF3A3A3A"/>
+      <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color rgb="FF3A3A3A"/>
-      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -680,8 +717,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF3E4042"/>
-        <bgColor rgb="FF3E4042"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -753,7 +790,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -770,9 +807,6 @@
     </xf>
     <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -783,20 +817,26 @@
     <xf borderId="2" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -805,14 +845,20 @@
     <xf borderId="1" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -833,6 +879,9 @@
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,20 +891,23 @@
     <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
@@ -866,13 +918,7 @@
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1107,7 +1153,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="10.1" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="92.4"/>
+    <col customWidth="1" min="1" max="1" width="73.7"/>
     <col customWidth="1" min="2" max="2" width="25.8"/>
     <col customWidth="1" min="3" max="3" width="15.6"/>
     <col customWidth="1" min="4" max="4" width="17.5"/>
@@ -1472,22 +1518,22 @@
       <c r="A10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="5">
         <v>10.0</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10">
         <v>2.0</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>1.0</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="12" t="s">
         <v>27</v>
       </c>
       <c r="J10" s="3"/>
@@ -1515,16 +1561,16 @@
       <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="5">
         <v>10.0</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11">
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10">
         <v>2.0</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>2.0</v>
       </c>
       <c r="I11" s="8"/>
@@ -1553,16 +1599,16 @@
       <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="5">
         <v>10.0</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
         <v>2.0</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>3.0</v>
       </c>
       <c r="I12" s="8"/>
@@ -1591,16 +1637,16 @@
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="5">
         <v>10.0</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10">
         <v>2.0</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>4.0</v>
       </c>
       <c r="I13" s="8"/>
@@ -1629,16 +1675,16 @@
       <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="5">
         <v>10.0</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10">
         <v>2.0</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>5.0</v>
       </c>
       <c r="I14" s="8"/>
@@ -1664,19 +1710,19 @@
       <c r="A15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="5">
         <v>10.0</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10">
         <v>2.0</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>6.0</v>
       </c>
       <c r="I15" s="8"/>
@@ -1705,16 +1751,16 @@
       <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="5">
         <v>10.0</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10">
         <v>2.0</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>7.0</v>
       </c>
       <c r="I16" s="8"/>
@@ -1743,16 +1789,16 @@
       <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="5">
         <v>10.0</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10">
         <v>2.0</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>8.0</v>
       </c>
       <c r="I17" s="8"/>
@@ -1781,16 +1827,16 @@
       <c r="B18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="5">
         <v>10.0</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10">
         <v>2.0</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>9.0</v>
       </c>
       <c r="I18" s="8"/>
@@ -1816,19 +1862,19 @@
       <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="5">
         <v>10.0</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10">
         <v>2.0</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>10.0</v>
       </c>
       <c r="I19" s="8"/>
@@ -1857,16 +1903,16 @@
       <c r="B20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="5">
         <v>10.0</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10">
         <v>2.0</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <v>11.0</v>
       </c>
       <c r="I20" s="8"/>
@@ -1895,16 +1941,16 @@
       <c r="B21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="5">
         <v>10.0</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10">
         <v>2.0</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <v>12.0</v>
       </c>
       <c r="I21" s="9"/>
@@ -1933,19 +1979,19 @@
       <c r="B22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="5">
         <v>10.0</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14">
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13">
         <v>3.0</v>
       </c>
-      <c r="H22" s="15">
+      <c r="H22" s="14">
         <v>1.0</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="15" t="s">
         <v>52</v>
       </c>
       <c r="J22" s="3"/>
@@ -1973,16 +2019,16 @@
       <c r="B23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="5">
         <v>10.0</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13">
         <v>3.0</v>
       </c>
-      <c r="H23" s="15">
+      <c r="H23" s="14">
         <v>2.0</v>
       </c>
       <c r="I23" s="8"/>
@@ -2008,19 +2054,19 @@
       <c r="A24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="5">
         <v>10.0</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14">
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13">
         <v>3.0</v>
       </c>
-      <c r="H24" s="15">
+      <c r="H24" s="14">
         <v>3.0</v>
       </c>
       <c r="I24" s="8"/>
@@ -2046,19 +2092,19 @@
       <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="5">
         <v>10.0</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14">
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13">
         <v>3.0</v>
       </c>
-      <c r="H25" s="15">
+      <c r="H25" s="14">
         <v>4.0</v>
       </c>
       <c r="I25" s="8"/>
@@ -2087,16 +2133,16 @@
       <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="5">
         <v>10.0</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14">
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13">
         <v>3.0</v>
       </c>
-      <c r="H26" s="15">
+      <c r="H26" s="14">
         <v>5.0</v>
       </c>
       <c r="I26" s="8"/>
@@ -2125,16 +2171,16 @@
       <c r="B27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="5">
         <v>10.0</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14">
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13">
         <v>3.0</v>
       </c>
-      <c r="H27" s="15">
+      <c r="H27" s="14">
         <v>6.0</v>
       </c>
       <c r="I27" s="8"/>
@@ -2163,16 +2209,16 @@
       <c r="B28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="5">
         <v>10.0</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14">
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13">
         <v>3.0</v>
       </c>
-      <c r="H28" s="15">
+      <c r="H28" s="14">
         <v>7.0</v>
       </c>
       <c r="I28" s="8"/>
@@ -2195,22 +2241,22 @@
       <c r="Z28" s="3"/>
     </row>
     <row r="29" ht="17.25" customHeight="1">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="17" t="s">
         <v>65</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="5">
         <v>10.0</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14">
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13">
         <v>3.0</v>
       </c>
-      <c r="H29" s="15">
+      <c r="H29" s="14">
         <v>8.0</v>
       </c>
       <c r="I29" s="8"/>
@@ -2239,16 +2285,16 @@
       <c r="B30" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="5">
         <v>10.0</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14">
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13">
         <v>3.0</v>
       </c>
-      <c r="H30" s="15">
+      <c r="H30" s="14">
         <v>9.0</v>
       </c>
       <c r="I30" s="8"/>
@@ -2277,16 +2323,16 @@
       <c r="B31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="5">
         <v>10.0</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14">
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13">
         <v>3.0</v>
       </c>
-      <c r="H31" s="15">
+      <c r="H31" s="14">
         <v>10.0</v>
       </c>
       <c r="I31" s="8"/>
@@ -2315,16 +2361,16 @@
       <c r="B32" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="5">
         <v>10.0</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14">
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13">
         <v>3.0</v>
       </c>
-      <c r="H32" s="15">
+      <c r="H32" s="14">
         <v>11.0</v>
       </c>
       <c r="I32" s="8"/>
@@ -2353,16 +2399,16 @@
       <c r="B33" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="5">
         <v>10.0</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14">
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13">
         <v>3.0</v>
       </c>
-      <c r="H33" s="15">
+      <c r="H33" s="14">
         <v>12.0</v>
       </c>
       <c r="I33" s="8"/>
@@ -2391,16 +2437,16 @@
       <c r="B34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="5">
         <v>10.0</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13">
         <v>3.0</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="14">
         <v>13.0</v>
       </c>
       <c r="I34" s="8"/>
@@ -2426,19 +2472,19 @@
       <c r="A35" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="14">
+      <c r="C35" s="5">
         <v>10.0</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14">
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13">
         <v>3.0</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="14">
         <v>14.0</v>
       </c>
       <c r="I35" s="8"/>
@@ -2464,19 +2510,19 @@
       <c r="A36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="14">
+      <c r="C36" s="5">
         <v>10.0</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14">
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13">
         <v>3.0</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="14">
         <v>15.0</v>
       </c>
       <c r="I36" s="8"/>
@@ -2505,16 +2551,16 @@
       <c r="B37" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="14">
+      <c r="C37" s="5">
         <v>10.0</v>
       </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14">
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13">
         <v>3.0</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="14">
         <v>16.0</v>
       </c>
       <c r="I37" s="9"/>
@@ -2565,7 +2611,7 @@
       <c r="Z38" s="3"/>
     </row>
     <row r="39" ht="24.75" customHeight="1">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="18" t="s">
         <v>83</v>
       </c>
       <c r="J39" s="3"/>
@@ -2587,7 +2633,7 @@
       <c r="Z39" s="3"/>
     </row>
     <row r="40" ht="27.0" customHeight="1">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="19" t="s">
         <v>84</v>
       </c>
       <c r="J40" s="3"/>
@@ -2609,7 +2655,7 @@
       <c r="Z40" s="3"/>
     </row>
     <row r="41" ht="17.25" customHeight="1">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="19" t="s">
         <v>85</v>
       </c>
       <c r="J41" s="3"/>
@@ -2631,7 +2677,7 @@
       <c r="Z41" s="3"/>
     </row>
     <row r="42" ht="17.25" customHeight="1">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="19" t="s">
         <v>86</v>
       </c>
       <c r="J42" s="3"/>
@@ -29534,10 +29580,10 @@
       <c r="G1" s="3"/>
     </row>
     <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="4" t="s">
         <v>88</v>
       </c>
       <c r="C2" s="5">
@@ -29564,10 +29610,10 @@
       <c r="G3" s="3"/>
     </row>
     <row r="4" ht="42.0" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="22" t="s">
         <v>92</v>
       </c>
       <c r="C4" s="5">
@@ -29582,7 +29628,7 @@
       <c r="A5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="22" t="s">
         <v>94</v>
       </c>
       <c r="C5" s="5">
@@ -29594,10 +29640,10 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" ht="24.0" customHeight="1">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>96</v>
       </c>
       <c r="C6" s="5">
@@ -29609,18 +29655,18 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -30603,10 +30649,13 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A4"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -30646,42 +30695,42 @@
       </c>
     </row>
     <row r="2" ht="33.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>101</v>
       </c>
       <c r="C2" s="5">
         <v>40.0</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>102</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" ht="31.5" customHeight="1">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>104</v>
       </c>
       <c r="C3" s="5">
         <v>40.0</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="26" t="s">
         <v>105</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="30" t="s">
         <v>107</v>
       </c>
       <c r="C4" s="5">
@@ -30689,15 +30738,15 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="26" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>110</v>
       </c>
       <c r="C5" s="5">
@@ -30705,25 +30754,25 @@
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="26" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="30"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -31723,489 +31772,487 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="10.1" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="91.0"/>
-    <col customWidth="1" min="2" max="2" width="60.7"/>
+    <col customWidth="1" min="1" max="1" width="74.0"/>
+    <col customWidth="1" min="2" max="2" width="21.5"/>
     <col customWidth="1" min="3" max="26" width="10.9"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="39">
         <v>20.0</v>
       </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="39">
         <v>20.0</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="39">
         <v>20.0</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-    </row>
-    <row r="5" ht="40.5" customHeight="1">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+    </row>
+    <row r="5" ht="24.0" customHeight="1">
+      <c r="A5" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="39">
         <v>20.0</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="39">
         <v>20.0</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="39">
         <v>20.0</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="39">
         <v>20.0</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="39">
         <v>20.0</v>
       </c>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="39">
         <v>20.0</v>
       </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="39">
         <v>20.0</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="39">
         <v>20.0</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="39">
         <v>20.0</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
     </row>
     <row r="14" ht="17.25" customHeight="1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="39">
         <v>20.0</v>
       </c>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="39">
         <v>20.0</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="39">
         <v>20.0</v>
       </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="C17" s="38">
+      <c r="C17" s="43">
         <v>20.0</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="46">
         <v>30.0</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
     </row>
     <row r="19">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="46">
         <v>30.0</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="46">
         <v>30.0</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="40">
+      <c r="C21" s="46">
         <v>30.0</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="43" t="s">
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="45" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4" t="s">
+      <c r="B22" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="C22" s="46">
+        <v>30.0</v>
+      </c>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+    </row>
+    <row r="23" ht="22.5" customHeight="1">
+      <c r="A23" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="40">
+      <c r="B23" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" s="46">
         <v>30.0</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-    </row>
-    <row r="23" ht="22.5" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="40">
+      <c r="B24" s="45" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="46">
         <v>30.0</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="45" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="4" t="s">
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="45" t="s">
         <v>158</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B25" s="45" t="s">
         <v>159</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C25" s="46">
         <v>30.0</v>
       </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="46" t="s">
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="45" t="s">
         <v>160</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B26" s="45" t="s">
         <v>161</v>
       </c>
-      <c r="C25" s="40">
+      <c r="C26" s="46">
         <v>30.0</v>
       </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="4" t="s">
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="45" t="s">
         <v>163</v>
       </c>
-      <c r="C26" s="40">
+      <c r="C27" s="46">
         <v>30.0</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="4" t="s">
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B28" s="45" t="s">
         <v>165</v>
       </c>
-      <c r="C27" s="40">
+      <c r="C28" s="46">
         <v>30.0</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45" t="s">
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+    </row>
+    <row r="29" ht="19.5" customHeight="1">
+      <c r="A29" s="45" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="4" t="s">
+      <c r="B29" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C29" s="46">
+        <v>30.0</v>
+      </c>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="C28" s="40">
+      <c r="B30" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" s="46">
         <v>30.0</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-    </row>
-    <row r="29" ht="41.25" customHeight="1">
-      <c r="A29" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="47" t="s">
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="C29" s="40">
+      <c r="B31" s="45" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" s="46">
         <v>30.0</v>
       </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="48" t="s">
-        <v>171</v>
-      </c>
-      <c r="B30" s="19" t="s">
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="45" t="s">
         <v>172</v>
       </c>
-      <c r="C30" s="40">
+      <c r="B32" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="46">
         <v>30.0</v>
       </c>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="40">
+      <c r="B33" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C33" s="46">
         <v>30.0</v>
       </c>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" s="40">
-        <v>30.0</v>
-      </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C33" s="40">
-        <v>30.0</v>
-      </c>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+    </row>
     <row r="36" ht="15.75" customHeight="1"/>
     <row r="37" ht="15.75" customHeight="1"/>
     <row r="38" ht="15.75" customHeight="1"/>
@@ -33173,9 +33220,9 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A19"/>
+    <hyperlink r:id="rId1" location="cite_note-1" ref="A18"/>
     <hyperlink r:id="rId2" ref="A21"/>
-    <hyperlink r:id="rId3" ref="A30"/>
+    <hyperlink r:id="rId3" ref="A24"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -33206,30 +33253,54 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>183</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>185</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
